--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630300.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630300.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BDAFEA-886E-4C21-9B9A-27E119812289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF140959-AF0D-4779-90F1-736ACC068BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T072120.265" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T065905.266" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="143">
   <si>
     <t>Do Ty</t>
   </si>
@@ -398,6 +398,45 @@
   </si>
   <si>
     <t>TIMBANGAN ELEKTRONIK HENHER</t>
+  </si>
+  <si>
+    <t>CV DARWATECH INTERNUSA</t>
+  </si>
+  <si>
+    <t>247/DI/1223</t>
+  </si>
+  <si>
+    <t>SPRING SHARPENING</t>
+  </si>
+  <si>
+    <t>020/DI/0124</t>
+  </si>
+  <si>
+    <t>TINTA PLOTTER HP 45</t>
+  </si>
+  <si>
+    <t>KW-031/01/2024</t>
+  </si>
+  <si>
+    <t>INK CLEANER</t>
+  </si>
+  <si>
+    <t>KW-032/01/2024</t>
+  </si>
+  <si>
+    <t>PYLOX WARNA SILVER MERK SAMURA</t>
+  </si>
+  <si>
+    <t>KW-037/01/2024</t>
+  </si>
+  <si>
+    <t>TIMAH BATANG</t>
+  </si>
+  <si>
+    <t>DOUBLE TAPE</t>
+  </si>
+  <si>
+    <t>KERTAS COKLAT</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1252,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ44"/>
+  <dimension ref="A1:AZ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6580,74 +6619,967 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>24001323</v>
+      </c>
+      <c r="D41">
+        <v>1205</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45342</v>
+      </c>
       <c r="F41" t="s">
         <v>126</v>
       </c>
       <c r="G41">
-        <v>779.6</v>
-      </c>
-      <c r="H41">
-        <v>795.42</v>
+        <v>-1.01</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>-15.82</v>
-      </c>
-      <c r="L41" s="2">
-        <v>12568782.48</v>
-      </c>
-      <c r="N41" s="2">
-        <v>12568782.48</v>
-      </c>
-      <c r="AG41" s="2">
-        <v>3374</v>
+        <v>-1.01</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41">
+        <v>15803</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" t="s">
+        <v>90</v>
+      </c>
+      <c r="W41" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41">
+        <v>2104166</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41">
+        <v>56306480</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>45293</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP41">
+        <v>1205</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX41">
+        <v>23001954</v>
+      </c>
+      <c r="AY41">
+        <v>630300</v>
+      </c>
+      <c r="AZ41">
+        <v>1205.6303</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>24001324</v>
+      </c>
+      <c r="D42">
+        <v>1205</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45342</v>
+      </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42">
-        <v>779.6</v>
-      </c>
-      <c r="H42">
-        <v>779.6</v>
-      </c>
-      <c r="L42" s="2">
-        <v>12568782.48</v>
-      </c>
-      <c r="N42" s="2">
-        <v>12568782.48</v>
-      </c>
-      <c r="AG42" s="2">
-        <v>3374</v>
+        <v>-2.87</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>-2.87</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42">
+        <v>15803</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" t="s">
+        <v>90</v>
+      </c>
+      <c r="W42" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42">
+        <v>2104166</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI42">
+        <v>56306480</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>45293</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP42">
+        <v>1205</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX42">
+        <v>24001034</v>
+      </c>
+      <c r="AY42">
+        <v>630300</v>
+      </c>
+      <c r="AZ42">
+        <v>1205.6303</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43">
+        <v>24001335</v>
+      </c>
+      <c r="D43">
+        <v>1205</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45342</v>
+      </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G43">
-        <v>779.6</v>
-      </c>
-      <c r="H43">
-        <v>795.42</v>
+        <v>-1.98</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>-15.82</v>
-      </c>
-      <c r="L43" s="2">
-        <v>12568782.48</v>
-      </c>
-      <c r="N43" s="2">
-        <v>12568782.48</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>3374</v>
+        <v>-1.98</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43">
+        <v>15803</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>90</v>
+      </c>
+      <c r="W43" t="s">
+        <v>91</v>
+      </c>
+      <c r="X43">
+        <v>2104282</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI43">
+        <v>57416795</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>45313</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP43">
+        <v>1205</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX43">
+        <v>24001014</v>
+      </c>
+      <c r="AY43">
+        <v>630300</v>
+      </c>
+      <c r="AZ43">
+        <v>1205.6303</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>24001336</v>
+      </c>
+      <c r="D44">
+        <v>1205</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45342</v>
+      </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="G44">
+        <v>-1.67</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>-1.67</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44">
+        <v>15803</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>90</v>
+      </c>
+      <c r="W44" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44">
+        <v>2104282</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI44">
+        <v>57416795</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>45313</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP44">
+        <v>1205</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX44">
+        <v>24001015</v>
+      </c>
+      <c r="AY44">
+        <v>630300</v>
+      </c>
+      <c r="AZ44">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45">
+        <v>24001337</v>
+      </c>
+      <c r="D45">
+        <v>1205</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45">
+        <v>-1.27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45">
+        <v>-1.27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45">
+        <v>15803</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>90</v>
+      </c>
+      <c r="W45" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45">
+        <v>2104282</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI45">
+        <v>57416795</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>45313</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP45">
+        <v>1205</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX45">
+        <v>24001024</v>
+      </c>
+      <c r="AY45">
+        <v>630300</v>
+      </c>
+      <c r="AZ45">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>24001777</v>
+      </c>
+      <c r="D46">
+        <v>1205</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46">
+        <v>15.19</v>
+      </c>
+      <c r="H46">
+        <v>15.19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2">
+        <v>240000</v>
+      </c>
+      <c r="N46" s="2">
+        <v>240000</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46">
+        <v>15803</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <v>2104389</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG46">
+        <v>100</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>56971922</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP46">
+        <v>1205</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX46">
+        <v>24001087</v>
+      </c>
+      <c r="AY46">
+        <v>630300</v>
+      </c>
+      <c r="AZ46">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>24001778</v>
+      </c>
+      <c r="D47">
+        <v>1205</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47">
+        <v>41.13</v>
+      </c>
+      <c r="H47">
+        <v>41.13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="2">
+        <v>650000</v>
+      </c>
+      <c r="N47" s="2">
+        <v>650000</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47">
+        <v>15803</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47">
+        <v>2104390</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI47">
+        <v>56971922</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP47">
+        <v>1205</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX47">
+        <v>24001086</v>
+      </c>
+      <c r="AY47">
+        <v>630300</v>
+      </c>
+      <c r="AZ47">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48">
+        <v>827.12</v>
+      </c>
+      <c r="H48">
+        <v>851.74</v>
+      </c>
+      <c r="K48">
+        <v>-24.62</v>
+      </c>
+      <c r="L48" s="2">
+        <v>13458782.48</v>
+      </c>
+      <c r="N48" s="2">
+        <v>13458782.48</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="49" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49">
+        <v>827.12</v>
+      </c>
+      <c r="H49">
+        <v>827.12</v>
+      </c>
+      <c r="L49" s="2">
+        <v>13458782.48</v>
+      </c>
+      <c r="N49" s="2">
+        <v>13458782.48</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="50" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50">
+        <v>827.12</v>
+      </c>
+      <c r="H50">
+        <v>851.74</v>
+      </c>
+      <c r="K50">
+        <v>-24.62</v>
+      </c>
+      <c r="L50" s="2">
+        <v>13458782.48</v>
+      </c>
+      <c r="N50" s="2">
+        <v>13458782.48</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="51" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630300.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630300.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF140959-AF0D-4779-90F1-736ACC068BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C52822-C5AD-456E-84BA-523AD1F500BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T065905.266" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T070341.630" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="158">
   <si>
     <t>Do Ty</t>
   </si>
@@ -433,10 +433,55 @@
     <t>TIMAH BATANG</t>
   </si>
   <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>FACTORY SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>KEBUTUHAN FACTORY MJK</t>
+  </si>
+  <si>
     <t>DOUBLE TAPE</t>
   </si>
   <si>
     <t>KERTAS COKLAT</t>
+  </si>
+  <si>
+    <t>RODA POLYURETHAN</t>
+  </si>
+  <si>
+    <t>PT SERUM INDO PERKASA</t>
+  </si>
+  <si>
+    <t>VALVE PITTING 04-M5</t>
+  </si>
+  <si>
+    <t>ID00002974</t>
+  </si>
+  <si>
+    <t>PERPANJANG MESIN SEWA SNAP YKK</t>
+  </si>
+  <si>
+    <t>ID00120944</t>
+  </si>
+  <si>
+    <t>ID00120954</t>
+  </si>
+  <si>
+    <t>KEBUTUHAN FACTORY</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1291,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ51"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7245,28 +7290,28 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C46">
-        <v>24001777</v>
+        <v>24001044</v>
       </c>
       <c r="D46">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E46" s="1">
         <v>45343</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="G46">
-        <v>15.19</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="H46">
-        <v>15.19</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="I46" t="s">
         <v>55</v>
@@ -7275,10 +7320,10 @@
         <v>55</v>
       </c>
       <c r="L46" s="2">
-        <v>240000</v>
+        <v>1228600</v>
       </c>
       <c r="N46" s="2">
-        <v>240000</v>
+        <v>1228600</v>
       </c>
       <c r="O46" t="s">
         <v>56</v>
@@ -7299,22 +7344,22 @@
         <v>59</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="W46" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="X46">
-        <v>2104389</v>
+        <v>2105661</v>
       </c>
       <c r="Y46" s="1">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="Z46" t="s">
         <v>56</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB46" t="s">
         <v>56</v>
@@ -7328,17 +7373,8 @@
       <c r="AF46" t="s">
         <v>56</v>
       </c>
-      <c r="AG46">
-        <v>100</v>
-      </c>
       <c r="AH46" t="s">
         <v>56</v>
-      </c>
-      <c r="AI46">
-        <v>56971922</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>84</v>
       </c>
       <c r="AL46" t="s">
         <v>56</v>
@@ -7347,7 +7383,7 @@
         <v>45343</v>
       </c>
       <c r="AN46" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="AO46" t="s">
         <v>63</v>
@@ -7359,7 +7395,7 @@
         <v>64</v>
       </c>
       <c r="AR46" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AU46" t="s">
         <v>56</v>
@@ -7367,8 +7403,8 @@
       <c r="AV46" t="s">
         <v>66</v>
       </c>
-      <c r="AX46">
-        <v>24001087</v>
+      <c r="AX46" t="s">
+        <v>56</v>
       </c>
       <c r="AY46">
         <v>630300</v>
@@ -7385,7 +7421,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>24001778</v>
+        <v>24001777</v>
       </c>
       <c r="D47">
         <v>1205</v>
@@ -7397,10 +7433,10 @@
         <v>84</v>
       </c>
       <c r="G47">
-        <v>41.13</v>
+        <v>15.19</v>
       </c>
       <c r="H47">
-        <v>41.13</v>
+        <v>15.19</v>
       </c>
       <c r="I47" t="s">
         <v>55</v>
@@ -7409,10 +7445,10 @@
         <v>55</v>
       </c>
       <c r="L47" s="2">
-        <v>650000</v>
+        <v>240000</v>
       </c>
       <c r="N47" s="2">
-        <v>650000</v>
+        <v>240000</v>
       </c>
       <c r="O47" t="s">
         <v>56</v>
@@ -7439,7 +7475,7 @@
         <v>61</v>
       </c>
       <c r="X47">
-        <v>2104390</v>
+        <v>2104389</v>
       </c>
       <c r="Y47" s="1">
         <v>45343</v>
@@ -7463,7 +7499,7 @@
         <v>56</v>
       </c>
       <c r="AG47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AH47" t="s">
         <v>56</v>
@@ -7493,7 +7529,7 @@
         <v>64</v>
       </c>
       <c r="AR47" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AU47" t="s">
         <v>56</v>
@@ -7502,7 +7538,7 @@
         <v>66</v>
       </c>
       <c r="AX47">
-        <v>24001086</v>
+        <v>24001087</v>
       </c>
       <c r="AY47">
         <v>630300</v>
@@ -7512,74 +7548,1143 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>24001778</v>
+      </c>
+      <c r="D48">
+        <v>1205</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45343</v>
+      </c>
       <c r="F48" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48">
+        <v>41.13</v>
+      </c>
+      <c r="H48">
+        <v>41.13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2">
+        <v>650000</v>
+      </c>
+      <c r="N48" s="2">
+        <v>650000</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48">
+        <v>15803</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48">
+        <v>2104390</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI48">
+        <v>56971922</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP48">
+        <v>1205</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX48">
+        <v>24001086</v>
+      </c>
+      <c r="AY48">
+        <v>630300</v>
+      </c>
+      <c r="AZ48">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>24001827</v>
+      </c>
+      <c r="D49">
+        <v>1205</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49">
+        <v>22.78</v>
+      </c>
+      <c r="H49">
+        <v>22.78</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="2">
+        <v>360000</v>
+      </c>
+      <c r="N49" s="2">
+        <v>360000</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49">
+        <v>15803</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49">
+        <v>2105418</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49">
+        <v>57416795</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP49">
+        <v>1205</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX49">
+        <v>24001117</v>
+      </c>
+      <c r="AY49">
+        <v>630300</v>
+      </c>
+      <c r="AZ49">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>24001844</v>
+      </c>
+      <c r="D50">
+        <v>1205</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50">
+        <v>12.66</v>
+      </c>
+      <c r="H50">
+        <v>12.66</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2">
+        <v>200000</v>
+      </c>
+      <c r="N50" s="2">
+        <v>200000</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50">
+        <v>15803</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50">
+        <v>2105456</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50">
+        <v>20</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI50">
+        <v>55777351</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP50">
+        <v>1205</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX50">
+        <v>24001096</v>
+      </c>
+      <c r="AY50">
+        <v>630300</v>
+      </c>
+      <c r="AZ50">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51">
+        <v>24001394</v>
+      </c>
+      <c r="D51">
+        <v>1205</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51">
+        <v>94.02</v>
+      </c>
+      <c r="H51">
+        <v>94.02</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1485800</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1485800</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51">
+        <v>15803</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>90</v>
+      </c>
+      <c r="W51" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51">
+        <v>2105862</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51">
+        <v>2</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI51">
+        <v>55044166</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45295</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP51">
+        <v>1205</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX51">
+        <v>23001948</v>
+      </c>
+      <c r="AY51">
+        <v>630300</v>
+      </c>
+      <c r="AZ51">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52">
+        <v>24001395</v>
+      </c>
+      <c r="D52">
+        <v>1205</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52">
+        <v>94.02</v>
+      </c>
+      <c r="H52">
+        <v>94.02</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1485800</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1485800</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52">
+        <v>15803</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>90</v>
+      </c>
+      <c r="W52" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52">
+        <v>2105862</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG52">
+        <v>2</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI52">
+        <v>55044166</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45322</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP52">
+        <v>1205</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX52">
+        <v>24001062</v>
+      </c>
+      <c r="AY52">
+        <v>630300</v>
+      </c>
+      <c r="AZ52">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53">
+        <v>24001396</v>
+      </c>
+      <c r="D53">
+        <v>1205</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53">
+        <v>79.02</v>
+      </c>
+      <c r="H53">
+        <v>79.02</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1248720</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1248720</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53">
+        <v>15803</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>90</v>
+      </c>
+      <c r="W53" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53">
+        <v>2105862</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI53">
+        <v>55044166</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45322</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP53">
+        <v>1205</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX53">
+        <v>24001039</v>
+      </c>
+      <c r="AY53">
+        <v>630300</v>
+      </c>
+      <c r="AZ53">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54">
+        <v>24001031</v>
+      </c>
+      <c r="D54">
+        <v>1204</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F54" t="s">
         <v>139</v>
       </c>
-      <c r="G48">
-        <v>827.12</v>
-      </c>
-      <c r="H48">
-        <v>851.74</v>
-      </c>
-      <c r="K48">
+      <c r="G54">
+        <v>714.95</v>
+      </c>
+      <c r="H54">
+        <v>714.95</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="2">
+        <v>11298378</v>
+      </c>
+      <c r="N54" s="2">
+        <v>11298378</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <v>15803</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>140</v>
+      </c>
+      <c r="W54" t="s">
+        <v>141</v>
+      </c>
+      <c r="X54">
+        <v>2106355</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP54">
+        <v>1205</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY54">
+        <v>630300</v>
+      </c>
+      <c r="AZ54">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55">
+        <v>24001040</v>
+      </c>
+      <c r="D55">
+        <v>1204</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F55" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55">
+        <v>214.13</v>
+      </c>
+      <c r="H55">
+        <v>214.13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3383900</v>
+      </c>
+      <c r="N55" s="2">
+        <v>3383900</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55">
+        <v>15803</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>140</v>
+      </c>
+      <c r="W55" t="s">
+        <v>141</v>
+      </c>
+      <c r="X55">
+        <v>2106431</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP55">
+        <v>1205</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY55">
+        <v>630300</v>
+      </c>
+      <c r="AZ55">
+        <v>1205.6303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2136.44</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2161.06</v>
+      </c>
+      <c r="K56">
         <v>-24.62</v>
       </c>
-      <c r="L48" s="2">
-        <v>13458782.48</v>
-      </c>
-      <c r="N48" s="2">
-        <v>13458782.48</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>3475</v>
+      <c r="L56" s="2">
+        <v>34149980.479999997</v>
+      </c>
+      <c r="N56" s="2">
+        <v>34149980.479999997</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>3502</v>
       </c>
     </row>
-    <row r="49" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49">
-        <v>827.12</v>
-      </c>
-      <c r="H49">
-        <v>827.12</v>
-      </c>
-      <c r="L49" s="2">
-        <v>13458782.48</v>
-      </c>
-      <c r="N49" s="2">
-        <v>13458782.48</v>
-      </c>
-      <c r="AG49" s="2">
-        <v>3475</v>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2136.44</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2136.44</v>
+      </c>
+      <c r="L57" s="2">
+        <v>34149980.479999997</v>
+      </c>
+      <c r="N57" s="2">
+        <v>34149980.479999997</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>3502</v>
       </c>
     </row>
-    <row r="50" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50">
-        <v>827.12</v>
-      </c>
-      <c r="H50">
-        <v>851.74</v>
-      </c>
-      <c r="K50">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2113.66</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2138.2800000000002</v>
+      </c>
+      <c r="K58">
         <v>-24.62</v>
       </c>
-      <c r="L50" s="2">
-        <v>13458782.48</v>
-      </c>
-      <c r="N50" s="2">
-        <v>13458782.48</v>
-      </c>
-      <c r="AG50" s="2">
-        <v>3475</v>
+      <c r="L58" s="2">
+        <v>33789980.479999997</v>
+      </c>
+      <c r="N58" s="2">
+        <v>33789980.479999997</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>3500</v>
       </c>
     </row>
-    <row r="51" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>142</v>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59">
+        <v>22.78</v>
+      </c>
+      <c r="H59">
+        <v>22.78</v>
+      </c>
+      <c r="L59" s="2">
+        <v>360000</v>
+      </c>
+      <c r="N59" s="2">
+        <v>360000</v>
+      </c>
+      <c r="AG59">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
